--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_16_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_16_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1331061.985102313</v>
+        <v>-1333630.408541259</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -1376,7 +1376,7 @@
         <v>327.7618252962026</v>
       </c>
       <c r="E11" t="n">
-        <v>35.95971616393994</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>267.6865480628401</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65571344844562</v>
+        <v>14.6557134484456</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.26654546369548</v>
       </c>
       <c r="T11" t="n">
-        <v>176.9967538151398</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>224.0739556344217</v>
       </c>
       <c r="V11" t="n">
         <v>300.8310421456546</v>
       </c>
       <c r="W11" t="n">
-        <v>322.3197523929327</v>
+        <v>228.9357212738958</v>
       </c>
       <c r="X11" t="n">
         <v>342.8098843539887</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1528,7 +1528,7 @@
         <v>152.910763857457</v>
       </c>
       <c r="C13" t="n">
-        <v>103.8295109832674</v>
+        <v>113.4893208660026</v>
       </c>
       <c r="D13" t="n">
         <v>121.694256693732</v>
@@ -1537,16 +1537,16 @@
         <v>119.5127463220888</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>118.4998316984509</v>
       </c>
       <c r="G13" t="n">
         <v>139.1045919345479</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8337985898404</v>
+        <v>117.8337985898405</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>69.43120408535776</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>62.01093634556699</v>
       </c>
       <c r="S13" t="n">
-        <v>162.8478090069615</v>
+        <v>162.8478090069616</v>
       </c>
       <c r="T13" t="n">
         <v>192.6277329516889</v>
@@ -1588,7 +1588,7 @@
         <v>225.2164269993477</v>
       </c>
       <c r="W13" t="n">
-        <v>259.6017820121107</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>198.7884390645568</v>
@@ -1607,25 +1607,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>338.3516754465272</v>
+        <v>338.3516754465273</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>327.7618252962027</v>
       </c>
       <c r="E14" t="n">
         <v>355.0091537477815</v>
       </c>
       <c r="F14" t="n">
-        <v>379.9548294172311</v>
+        <v>379.9548294172312</v>
       </c>
       <c r="G14" t="n">
-        <v>384.0005093289731</v>
+        <v>384.0005093289732</v>
       </c>
       <c r="H14" t="n">
-        <v>267.6865480628401</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65571344844565</v>
+        <v>14.65571344844567</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,19 +1658,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>176.9967538151398</v>
+        <v>101.491660215906</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0739556344216</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>61.32727014536216</v>
+        <v>300.8310421456546</v>
       </c>
       <c r="W14" t="n">
         <v>322.3197523929327</v>
       </c>
       <c r="X14" t="n">
-        <v>342.8098843539887</v>
+        <v>342.8098843539888</v>
       </c>
       <c r="Y14" t="n">
         <v>359.3167223315733</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1765,22 +1765,22 @@
         <v>152.910763857457</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3256047741475</v>
+        <v>140.3256047741476</v>
       </c>
       <c r="D16" t="n">
-        <v>121.694256693732</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>119.5127463220888</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>118.4998316984509</v>
+        <v>118.499831698451</v>
       </c>
       <c r="G16" t="n">
-        <v>139.1045919345479</v>
+        <v>139.104591934548</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8337985898404</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01093634556702</v>
+        <v>12.3814390887139</v>
       </c>
       <c r="S16" t="n">
         <v>162.8478090069616</v>
       </c>
       <c r="T16" t="n">
-        <v>9.173861088523021</v>
+        <v>192.6277329516889</v>
       </c>
       <c r="U16" t="n">
         <v>259.2906218811326</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>225.2164269993477</v>
       </c>
       <c r="W16" t="n">
         <v>259.6017820121107</v>
       </c>
       <c r="X16" t="n">
-        <v>198.7884390645568</v>
+        <v>198.7884390645569</v>
       </c>
       <c r="Y16" t="n">
         <v>191.6634370276145</v>
@@ -1850,7 +1850,7 @@
         <v>280.7866886776101</v>
       </c>
       <c r="E17" t="n">
-        <v>152.0956941545689</v>
+        <v>308.0340171291889</v>
       </c>
       <c r="F17" t="n">
         <v>332.9796927986386</v>
@@ -1859,7 +1859,7 @@
         <v>337.0253727103806</v>
       </c>
       <c r="H17" t="n">
-        <v>220.7114114442475</v>
+        <v>17.69588665034601</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1895,10 +1895,10 @@
         <v>35.29140884510294</v>
       </c>
       <c r="T17" t="n">
-        <v>130.0216171965473</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>177.0988190158291</v>
       </c>
       <c r="V17" t="n">
         <v>253.855905527062</v>
@@ -2005,10 +2005,10 @@
         <v>93.35046815555492</v>
       </c>
       <c r="D19" t="n">
-        <v>74.71912007513944</v>
+        <v>137.1359300677647</v>
       </c>
       <c r="E19" t="n">
-        <v>134.9544196961214</v>
+        <v>72.53760970349626</v>
       </c>
       <c r="F19" t="n">
         <v>71.52469507985833</v>
@@ -2096,7 +2096,7 @@
         <v>337.0253727103806</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7114114442476</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29140884510294</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>130.0216171965473</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>177.0988190158291</v>
       </c>
       <c r="V20" t="n">
         <v>253.855905527062</v>
       </c>
       <c r="W20" t="n">
-        <v>275.3446157743401</v>
+        <v>198.3102940732416</v>
       </c>
       <c r="X20" t="n">
         <v>295.8347477353961</v>
       </c>
       <c r="Y20" t="n">
-        <v>156.4032627383607</v>
+        <v>312.3415857129806</v>
       </c>
     </row>
     <row r="21">
@@ -2485,13 +2485,13 @@
         <v>72.53760970349626</v>
       </c>
       <c r="F25" t="n">
-        <v>133.9415050724835</v>
+        <v>71.52469507985833</v>
       </c>
       <c r="G25" t="n">
         <v>92.12945531595531</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85866197124787</v>
+        <v>133.275471963873</v>
       </c>
       <c r="I25" t="n">
         <v>22.4560674667652</v>
@@ -2558,16 +2558,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E26" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H26" t="n">
         <v>247.6326277687279</v>
@@ -2615,10 +2615,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y26" t="n">
         <v>339.262802037461</v>
@@ -2713,25 +2713,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D28" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572821</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2795,16 +2795,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E29" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H29" t="n">
         <v>247.6326277687279</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2852,10 +2852,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y29" t="n">
         <v>339.262802037461</v>
@@ -2950,25 +2950,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128497</v>
       </c>
       <c r="T31" t="n">
         <v>172.5738126575766</v>
@@ -3029,19 +3029,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C32" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E32" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H32" t="n">
         <v>247.6326277687279</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3089,10 +3089,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y32" t="n">
         <v>339.262802037461</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,25 +3187,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572821</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T35" t="n">
         <v>156.9428335210276</v>
@@ -3430,19 +3430,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G37" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
@@ -3667,19 +3667,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3904,19 +3904,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448879</v>
       </c>
       <c r="C44" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D44" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E44" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536691</v>
       </c>
       <c r="F44" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G44" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H44" t="n">
-        <v>247.6326277687279</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958321</v>
       </c>
       <c r="T44" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210275</v>
       </c>
       <c r="U44" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403093</v>
       </c>
       <c r="V44" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515422</v>
       </c>
       <c r="W44" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988203</v>
       </c>
       <c r="X44" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y44" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374609</v>
       </c>
     </row>
     <row r="45">
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4135,25 +4135,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D46" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E46" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797653</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433867</v>
+        <v>98.4459114043386</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572814</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124547</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145479</v>
+        <v>41.9570160514547</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4189,7 +4189,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U46" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V46" t="n">
         <v>205.1625067052354</v>
@@ -4198,10 +4198,10 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X46" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335021</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1448.750487893727</v>
+        <v>1412.427542273586</v>
       </c>
       <c r="C11" t="n">
-        <v>1106.981118755821</v>
+        <v>1070.65817313568</v>
       </c>
       <c r="D11" t="n">
-        <v>775.9085679515758</v>
+        <v>739.5856223314347</v>
       </c>
       <c r="E11" t="n">
-        <v>739.585622331435</v>
+        <v>739.5856223314347</v>
       </c>
       <c r="F11" t="n">
-        <v>739.585622331435</v>
+        <v>739.5856223314347</v>
       </c>
       <c r="G11" t="n">
-        <v>351.7063199789369</v>
+        <v>351.7063199789367</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31586739020943</v>
+        <v>81.31586739020929</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218357</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3242.508300938773</v>
       </c>
       <c r="T11" t="n">
-        <v>3146.821221795899</v>
+        <v>3242.508300938773</v>
       </c>
       <c r="U11" t="n">
-        <v>3146.821221795899</v>
+        <v>3016.170972015114</v>
       </c>
       <c r="V11" t="n">
-        <v>2842.951482254834</v>
+        <v>2712.301232474049</v>
       </c>
       <c r="W11" t="n">
-        <v>2517.375974787225</v>
+        <v>2481.053029167083</v>
       </c>
       <c r="X11" t="n">
-        <v>2171.10336432865</v>
+        <v>2134.780418708509</v>
       </c>
       <c r="Y11" t="n">
-        <v>1808.157180155344</v>
+        <v>1771.834234535203</v>
       </c>
     </row>
     <row r="12">
@@ -5109,22 +5109,22 @@
         <v>312.3844025601604</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392779</v>
+        <v>176.0213023927785</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064633</v>
+        <v>85.51940803064588</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
         <v>398.453584903148</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>674.5675755468063</v>
+        <v>874.154288341295</v>
       </c>
       <c r="C13" t="n">
-        <v>569.6892816243139</v>
+        <v>759.5186106988681</v>
       </c>
       <c r="D13" t="n">
-        <v>446.7657900144836</v>
+        <v>636.5951190890378</v>
       </c>
       <c r="E13" t="n">
-        <v>326.0458442345958</v>
+        <v>515.87517330915</v>
       </c>
       <c r="F13" t="n">
-        <v>326.0458442345958</v>
+        <v>396.1783736137451</v>
       </c>
       <c r="G13" t="n">
-        <v>185.5361554118202</v>
+        <v>255.6686847909694</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218343</v>
+        <v>136.6446458113327</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>138.2867530403545</v>
+        <v>138.2867530403544</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9259401504665</v>
+        <v>368.9259401504663</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1377427601982</v>
+        <v>712.1377427601981</v>
       </c>
       <c r="M13" t="n">
         <v>1082.946792520983</v>
@@ -5221,28 +5221,28 @@
         <v>2140.510581378377</v>
       </c>
       <c r="R13" t="n">
-        <v>2140.510581378377</v>
+        <v>2077.873271938411</v>
       </c>
       <c r="S13" t="n">
-        <v>1976.017845007709</v>
+        <v>1913.380535567742</v>
       </c>
       <c r="T13" t="n">
-        <v>1781.44437737974</v>
+        <v>1718.807067939774</v>
       </c>
       <c r="U13" t="n">
-        <v>1519.534658307889</v>
+        <v>1456.897348867923</v>
       </c>
       <c r="V13" t="n">
-        <v>1292.043317904508</v>
+        <v>1229.406008464541</v>
       </c>
       <c r="W13" t="n">
-        <v>1029.819295670053</v>
+        <v>1229.406008464541</v>
       </c>
       <c r="X13" t="n">
-        <v>829.0228925745406</v>
+        <v>1028.609605369029</v>
       </c>
       <c r="Y13" t="n">
-        <v>829.0228925745406</v>
+        <v>1028.609605369029</v>
       </c>
     </row>
     <row r="14">
@@ -5252,49 +5252,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1823.742853252182</v>
+        <v>1884.4249514677</v>
       </c>
       <c r="C14" t="n">
-        <v>1481.973484114276</v>
+        <v>1542.655582329794</v>
       </c>
       <c r="D14" t="n">
-        <v>1481.973484114276</v>
+        <v>1211.583031525549</v>
       </c>
       <c r="E14" t="n">
-        <v>1123.378379318537</v>
+        <v>852.9879267298102</v>
       </c>
       <c r="F14" t="n">
-        <v>739.5856223314349</v>
+        <v>469.1951697427078</v>
       </c>
       <c r="G14" t="n">
-        <v>351.7063199789368</v>
+        <v>81.31586739020935</v>
       </c>
       <c r="H14" t="n">
-        <v>81.31586739020932</v>
+        <v>81.31586739020935</v>
       </c>
       <c r="I14" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
         <v>3266.588755052368</v>
@@ -5306,22 +5306,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3146.821221795898</v>
+        <v>3223.088993108256</v>
       </c>
       <c r="U14" t="n">
-        <v>2920.48389287224</v>
+        <v>3223.088993108256</v>
       </c>
       <c r="V14" t="n">
-        <v>2858.537155351672</v>
+        <v>2919.21925356719</v>
       </c>
       <c r="W14" t="n">
-        <v>2532.961647884063</v>
+        <v>2593.643746099581</v>
       </c>
       <c r="X14" t="n">
-        <v>2186.689037425489</v>
+        <v>2247.371135641007</v>
       </c>
       <c r="Y14" t="n">
-        <v>1823.742853252182</v>
+        <v>1884.4249514677</v>
       </c>
     </row>
     <row r="15">
@@ -5346,10 +5346,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
@@ -5358,16 +5358,16 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
         <v>2096.912393410638</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>831.12911644512</v>
+        <v>468.4616400757657</v>
       </c>
       <c r="C16" t="n">
-        <v>689.3860813197184</v>
+        <v>326.7186049503641</v>
       </c>
       <c r="D16" t="n">
-        <v>566.4625897098881</v>
+        <v>326.7186049503641</v>
       </c>
       <c r="E16" t="n">
-        <v>445.7426439300004</v>
+        <v>326.7186049503641</v>
       </c>
       <c r="F16" t="n">
-        <v>326.0458442345955</v>
+        <v>207.0218052549591</v>
       </c>
       <c r="G16" t="n">
-        <v>185.5361554118202</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
         <v>66.51211643218342</v>
@@ -5434,52 +5434,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>138.2867530403545</v>
+        <v>138.2867530403547</v>
       </c>
       <c r="K16" t="n">
-        <v>368.925940150466</v>
+        <v>368.9259401504665</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1377427601976</v>
+        <v>712.1377427601981</v>
       </c>
       <c r="M16" t="n">
-        <v>1082.946792520982</v>
+        <v>1082.946792520983</v>
       </c>
       <c r="N16" t="n">
-        <v>1451.007173388082</v>
+        <v>1451.007173388083</v>
       </c>
       <c r="O16" t="n">
-        <v>1776.988776469731</v>
+        <v>1776.988776469732</v>
       </c>
       <c r="P16" t="n">
-        <v>2036.248281064626</v>
+        <v>2036.248281064627</v>
       </c>
       <c r="Q16" t="n">
-        <v>2140.510581378376</v>
+        <v>2140.510581378377</v>
       </c>
       <c r="R16" t="n">
-        <v>2077.873271938409</v>
+        <v>2128.004077248362</v>
       </c>
       <c r="S16" t="n">
-        <v>1913.380535567741</v>
+        <v>1963.511340877694</v>
       </c>
       <c r="T16" t="n">
-        <v>1904.114009215697</v>
+        <v>1768.937873249725</v>
       </c>
       <c r="U16" t="n">
-        <v>1642.204290143846</v>
+        <v>1507.028154177874</v>
       </c>
       <c r="V16" t="n">
-        <v>1642.204290143846</v>
+        <v>1279.536813774492</v>
       </c>
       <c r="W16" t="n">
-        <v>1379.980267909391</v>
+        <v>1017.312791540037</v>
       </c>
       <c r="X16" t="n">
-        <v>1179.183864813879</v>
+        <v>816.5163884445249</v>
       </c>
       <c r="Y16" t="n">
-        <v>985.5844334728544</v>
+        <v>622.9169571035001</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1697.80039785984</v>
+        <v>1650.247668749455</v>
       </c>
       <c r="C17" t="n">
-        <v>1403.480661670007</v>
+        <v>1355.927932559622</v>
       </c>
       <c r="D17" t="n">
-        <v>1119.857743813835</v>
+        <v>1072.30501470345</v>
       </c>
       <c r="E17" t="n">
-        <v>966.225729516291</v>
+        <v>761.1595428557846</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8826054772622</v>
+        <v>424.8164188167557</v>
       </c>
       <c r="G17" t="n">
-        <v>289.4529360728375</v>
+        <v>84.38674941233091</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218342</v>
@@ -5543,22 +5543,22 @@
         <v>3289.957933886844</v>
       </c>
       <c r="T17" t="n">
-        <v>3158.622967021645</v>
+        <v>3289.957933886844</v>
       </c>
       <c r="U17" t="n">
-        <v>3158.622967021645</v>
+        <v>3111.070237911259</v>
       </c>
       <c r="V17" t="n">
-        <v>2902.202860428653</v>
+        <v>2854.650131318268</v>
       </c>
       <c r="W17" t="n">
-        <v>2624.076985909117</v>
+        <v>2576.524256798732</v>
       </c>
       <c r="X17" t="n">
-        <v>2325.254008398616</v>
+        <v>2277.701279288231</v>
       </c>
       <c r="Y17" t="n">
-        <v>2009.757457173384</v>
+        <v>1962.204728062998</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5610,7 +5610,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
         <v>2565.053542533341</v>
@@ -5625,7 +5625,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5634,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5653,7 +5653,7 @@
         <v>537.8680958312618</v>
       </c>
       <c r="D19" t="n">
-        <v>462.3942371695048</v>
+        <v>399.3469543486713</v>
       </c>
       <c r="E19" t="n">
         <v>326.0766415168569</v>
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1855.313855409961</v>
+        <v>1632.373035769307</v>
       </c>
       <c r="C20" t="n">
-        <v>1560.994119220128</v>
+        <v>1338.053299579474</v>
       </c>
       <c r="D20" t="n">
-        <v>1277.371201363957</v>
+        <v>1054.430381723303</v>
       </c>
       <c r="E20" t="n">
-        <v>966.2257295162913</v>
+        <v>743.2849098756371</v>
       </c>
       <c r="F20" t="n">
-        <v>629.8826054772625</v>
+        <v>406.9417858366082</v>
       </c>
       <c r="G20" t="n">
-        <v>289.4529360728376</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218342</v>
@@ -5759,7 +5759,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060171</v>
@@ -5768,7 +5768,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052368</v>
@@ -5777,25 +5777,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3289.957933886844</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3158.622967021645</v>
+        <v>3194.270854743971</v>
       </c>
       <c r="U20" t="n">
-        <v>3158.622967021645</v>
+        <v>3015.383158768386</v>
       </c>
       <c r="V20" t="n">
-        <v>2902.202860428653</v>
+        <v>2758.963052175394</v>
       </c>
       <c r="W20" t="n">
-        <v>2624.076985909118</v>
+        <v>2558.649623818585</v>
       </c>
       <c r="X20" t="n">
-        <v>2325.254008398617</v>
+        <v>2259.826646308083</v>
       </c>
       <c r="Y20" t="n">
-        <v>2167.270914723505</v>
+        <v>1944.33009508285</v>
       </c>
     </row>
     <row r="21">
@@ -5829,10 +5829,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
         <v>765.1517452158134</v>
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1862.179185073751</v>
+        <v>1862.179185073752</v>
       </c>
       <c r="C23" t="n">
-        <v>1567.859448883918</v>
+        <v>1567.859448883919</v>
       </c>
       <c r="D23" t="n">
-        <v>1284.236531027746</v>
+        <v>1284.236531027747</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0910591800809</v>
+        <v>973.0910591800814</v>
       </c>
       <c r="F23" t="n">
-        <v>636.747935141052</v>
+        <v>636.7479351410525</v>
       </c>
       <c r="G23" t="n">
         <v>296.3182657366274</v>
@@ -5996,25 +5996,25 @@
         <v>1214.515813013607</v>
       </c>
       <c r="M23" t="n">
-        <v>1851.983966516632</v>
+        <v>1748.047717685531</v>
       </c>
       <c r="N23" t="n">
-        <v>2398.762783575414</v>
+        <v>2294.826534744313</v>
       </c>
       <c r="O23" t="n">
-        <v>2901.735254454751</v>
+        <v>2797.79900562365</v>
       </c>
       <c r="P23" t="n">
-        <v>3296.509620811929</v>
+        <v>3192.573371980828</v>
       </c>
       <c r="Q23" t="n">
-        <v>3544.795982567611</v>
+        <v>3609.855238241864</v>
       </c>
       <c r="R23" t="n">
         <v>3668.872304798666</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.22441707634</v>
+        <v>3633.224417076341</v>
       </c>
       <c r="T23" t="n">
         <v>3501.889450211141</v>
@@ -6029,10 +6029,10 @@
         <v>2788.455773123029</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.632795612527</v>
+        <v>2489.632795612528</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.136244387294</v>
+        <v>2174.136244387295</v>
       </c>
     </row>
     <row r="24">
@@ -6069,22 +6069,22 @@
         <v>167.0547155865906</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3189145669385</v>
+        <v>405.3189145669377</v>
       </c>
       <c r="L24" t="n">
-        <v>772.0170748796038</v>
+        <v>772.0170748796029</v>
       </c>
       <c r="M24" t="n">
-        <v>1219.29340010192</v>
+        <v>1219.293400101919</v>
       </c>
       <c r="N24" t="n">
-        <v>1692.816443656374</v>
+        <v>1692.816443656373</v>
       </c>
       <c r="O24" t="n">
-        <v>2103.777723074429</v>
+        <v>2103.777723074428</v>
       </c>
       <c r="P24" t="n">
-        <v>2414.277314550532</v>
+        <v>2414.277314550531</v>
       </c>
       <c r="Q24" t="n">
         <v>2571.918872197131</v>
@@ -6133,10 +6133,10 @@
         <v>395.9892540014803</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6948044333151</v>
+        <v>323.7420872541486</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6347485586128</v>
+        <v>230.6820313794462</v>
       </c>
       <c r="H25" t="n">
         <v>96.06034252704929</v>
@@ -6206,16 +6206,16 @@
         <v>1711.594658697161</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E26" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H26" t="n">
         <v>81.14691689668915</v>
@@ -6230,37 +6230,37 @@
         <v>771.251070565914</v>
       </c>
       <c r="L26" t="n">
-        <v>1261.907203722595</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M26" t="n">
-        <v>2240.457506552423</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N26" t="n">
-        <v>2787.236323611206</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O26" t="n">
-        <v>3290.208794490542</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P26" t="n">
-        <v>3684.98316084772</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q26" t="n">
         <v>3933.269522603402</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S26" t="n">
         <v>3994.504809309626</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.97669464192</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W26" t="n">
         <v>3040.963574146293</v>
@@ -6309,19 +6309,19 @@
         <v>413.0883853676535</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O27" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q27" t="n">
         <v>2579.688342997847</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D28" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F28" t="n">
         <v>350.0437186415471</v>
@@ -6382,25 +6382,25 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
         <v>423.2675027973143</v>
       </c>
       <c r="L28" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M28" t="n">
         <v>1176.995117350172</v>
       </c>
       <c r="N28" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O28" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q28" t="n">
         <v>2313.972430572251</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="29">
@@ -6440,19 +6440,19 @@
         <v>2033.107542689499</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.59465869716</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388312</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467779</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H29" t="n">
         <v>81.14691689668915</v>
@@ -6461,52 +6461,52 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557145</v>
+        <v>347.6465910812753</v>
       </c>
       <c r="K29" t="n">
-        <v>924.7493799910139</v>
+        <v>1002.369923216575</v>
       </c>
       <c r="L29" t="n">
-        <v>1375.783593239423</v>
+        <v>1453.404136464983</v>
       </c>
       <c r="M29" t="n">
-        <v>1909.315497911347</v>
+        <v>1986.936041136908</v>
       </c>
       <c r="N29" t="n">
-        <v>2456.094314970129</v>
+        <v>2533.71485819569</v>
       </c>
       <c r="O29" t="n">
-        <v>3336.058965299584</v>
+        <v>3036.687329075027</v>
       </c>
       <c r="P29" t="n">
-        <v>3750.042416521973</v>
+        <v>3750.042416521972</v>
       </c>
       <c r="Q29" t="n">
         <v>3998.328778277655</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S29" t="n">
         <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.97669464192</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.89585086383</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
         <v>3346.282596468333</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146292</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833285</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805547</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="30">
@@ -6540,13 +6540,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502697997</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899666</v>
+        <v>652.614500289966</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257042</v>
+        <v>549.9474938257036</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913839</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415469</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643392</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
@@ -6619,16 +6619,16 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L31" t="n">
         <v>786.3326864982168</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N31" t="n">
         <v>1564.908879308444</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519666</v>
+        <v>908.299882151966</v>
       </c>
     </row>
     <row r="32">
@@ -6683,13 +6683,13 @@
         <v>1400.778593038483</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388312</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467779</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H32" t="n">
         <v>81.14691689668915</v>
@@ -6698,40 +6698,40 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>771.251070565914</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L32" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M32" t="n">
-        <v>1755.817188486247</v>
+        <v>1872.543307058811</v>
       </c>
       <c r="N32" t="n">
-        <v>2302.596005545029</v>
+        <v>2852.295579285457</v>
       </c>
       <c r="O32" t="n">
-        <v>2805.568476424366</v>
+        <v>3355.268050164794</v>
       </c>
       <c r="P32" t="n">
-        <v>3518.923563871311</v>
+        <v>3750.042416521972</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R32" t="n">
         <v>4057.345844834457</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309625</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.97669464192</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.89585086383</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
         <v>3346.282596468333</v>
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456142</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644872</v>
       </c>
       <c r="D33" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977805</v>
       </c>
       <c r="F33" t="n">
         <v>327.0192030246656</v>
@@ -6777,13 +6777,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873066</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676537</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
@@ -6844,37 +6844,37 @@
         <v>449.484033191384</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415469</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643392</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302703</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982166</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N34" t="n">
         <v>1564.908879308444</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
         <v>2313.972430572251</v>
@@ -6892,7 +6892,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
         <v>1262.182746297367</v>
@@ -6938,22 +6938,22 @@
         <v>270.0260478557145</v>
       </c>
       <c r="K35" t="n">
-        <v>603.8454215455608</v>
+        <v>924.7493799910139</v>
       </c>
       <c r="L35" t="n">
-        <v>1054.879634793969</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M35" t="n">
-        <v>1588.411539465894</v>
+        <v>1909.315497911347</v>
       </c>
       <c r="N35" t="n">
-        <v>2475.30339983534</v>
+        <v>2456.094314970129</v>
       </c>
       <c r="O35" t="n">
-        <v>3355.268050164795</v>
+        <v>2959.066785849466</v>
       </c>
       <c r="P35" t="n">
-        <v>3750.042416521973</v>
+        <v>3672.421873296411</v>
       </c>
       <c r="Q35" t="n">
         <v>3998.328778277655</v>
@@ -6971,7 +6971,7 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V35" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W35" t="n">
         <v>3040.963574146293</v>
@@ -7014,19 +7014,19 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J36" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K36" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L36" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M36" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O36" t="n">
         <v>2111.547193875144</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D37" t="n">
-        <v>549.9474938257041</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F37" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H37" t="n">
         <v>131.0229611302705</v>
@@ -7096,10 +7096,10 @@
         <v>172.7749345960313</v>
       </c>
       <c r="K37" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L37" t="n">
-        <v>786.3326864982171</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M37" t="n">
         <v>1176.995117350173</v>
@@ -7138,7 +7138,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="38">
@@ -7154,61 +7154,61 @@
         <v>1711.594658697161</v>
       </c>
       <c r="D38" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E38" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G38" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H38" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I38" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J38" t="n">
         <v>437.4316968760676</v>
       </c>
       <c r="K38" t="n">
-        <v>771.251070565914</v>
+        <v>1045.699547878784</v>
       </c>
       <c r="L38" t="n">
-        <v>1222.285283814323</v>
+        <v>1496.733761127193</v>
       </c>
       <c r="M38" t="n">
-        <v>2095.324921473371</v>
+        <v>2030.265665799117</v>
       </c>
       <c r="N38" t="n">
-        <v>2642.103738532153</v>
+        <v>2577.044482857899</v>
       </c>
       <c r="O38" t="n">
-        <v>3145.07620941149</v>
+        <v>3080.016953737236</v>
       </c>
       <c r="P38" t="n">
-        <v>3539.850575768668</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q38" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R38" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S38" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T38" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U38" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W38" t="n">
         <v>3040.963574146293</v>
@@ -7248,7 +7248,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I39" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J39" t="n">
         <v>174.8241863873064</v>
@@ -7269,7 +7269,7 @@
         <v>2111.547193875144</v>
       </c>
       <c r="P39" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q39" t="n">
         <v>2579.688342997847</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257041</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913843</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F40" t="n">
         <v>350.0437186415472</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H40" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I40" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J40" t="n">
         <v>172.7749345960314</v>
@@ -7375,7 +7375,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467787</v>
+        <v>698.9037015467786</v>
       </c>
       <c r="G41" t="n">
         <v>331.2808843398487</v>
@@ -7412,28 +7412,28 @@
         <v>270.0260478557145</v>
       </c>
       <c r="K41" t="n">
-        <v>603.8454215455608</v>
+        <v>625.3777437664569</v>
       </c>
       <c r="L41" t="n">
-        <v>1468.364237198915</v>
+        <v>1076.411957014865</v>
       </c>
       <c r="M41" t="n">
-        <v>2001.89614187084</v>
+        <v>1609.94386168679</v>
       </c>
       <c r="N41" t="n">
-        <v>2852.295579285458</v>
+        <v>2156.722678745572</v>
       </c>
       <c r="O41" t="n">
-        <v>3355.268050164795</v>
+        <v>3036.687329075027</v>
       </c>
       <c r="P41" t="n">
-        <v>3750.042416521973</v>
+        <v>3750.042416521972</v>
       </c>
       <c r="Q41" t="n">
         <v>3998.328778277655</v>
       </c>
       <c r="R41" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S41" t="n">
         <v>3994.504809309626</v>
@@ -7445,7 +7445,7 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V41" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W41" t="n">
         <v>3040.963574146293</v>
@@ -7500,7 +7500,7 @@
         <v>1227.062870902635</v>
       </c>
       <c r="N42" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O42" t="n">
         <v>2111.547193875144</v>
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257041</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E43" t="n">
         <v>449.4840331913842</v>
@@ -7573,10 +7573,10 @@
         <v>423.2675027973143</v>
       </c>
       <c r="L43" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M43" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N43" t="n">
         <v>1564.908879308444</v>
@@ -7585,7 +7585,7 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P43" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q43" t="n">
         <v>2313.972430572251</v>
@@ -7612,7 +7612,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="44">
@@ -7634,10 +7634,10 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467791</v>
       </c>
       <c r="G44" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H44" t="n">
         <v>81.14691689668915</v>
@@ -7649,28 +7649,28 @@
         <v>437.4316968760676</v>
       </c>
       <c r="K44" t="n">
-        <v>771.251070565914</v>
+        <v>1045.699547878784</v>
       </c>
       <c r="L44" t="n">
-        <v>1222.285283814323</v>
+        <v>1496.733761127193</v>
       </c>
       <c r="M44" t="n">
-        <v>1755.817188486247</v>
+        <v>2030.265665799117</v>
       </c>
       <c r="N44" t="n">
-        <v>2302.596005545029</v>
+        <v>2577.044482857899</v>
       </c>
       <c r="O44" t="n">
-        <v>3182.560655874483</v>
+        <v>3080.016953737236</v>
       </c>
       <c r="P44" t="n">
-        <v>3577.335022231661</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q44" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R44" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S44" t="n">
         <v>3994.504809309626</v>
@@ -7743,10 +7743,10 @@
         <v>2111.547193875144</v>
       </c>
       <c r="P45" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q45" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R45" t="n">
         <v>2579.543989590362</v>
@@ -7780,64 +7780,64 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502697995</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899661</v>
+        <v>652.614500289966</v>
       </c>
       <c r="D46" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257036</v>
       </c>
       <c r="E46" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913839</v>
       </c>
       <c r="F46" t="n">
         <v>350.0437186415469</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0229611302702</v>
+        <v>131.0229611302704</v>
       </c>
       <c r="I46" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J46" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K46" t="n">
-        <v>423.2675027973142</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L46" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M46" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N46" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308442</v>
       </c>
       <c r="O46" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481262</v>
       </c>
       <c r="P46" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.856749167328</v>
       </c>
       <c r="Q46" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.97243057225</v>
       </c>
       <c r="R46" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277851</v>
       </c>
       <c r="S46" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052751</v>
       </c>
       <c r="T46" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.03837257035</v>
       </c>
       <c r="U46" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644067</v>
       </c>
       <c r="V46" t="n">
         <v>1504.150283386254</v>
@@ -7849,7 +7849,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519659</v>
       </c>
     </row>
   </sheetData>
@@ -8216,22 +8216,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>212.1614152764226</v>
+        <v>212.1614152764228</v>
       </c>
       <c r="L5" t="n">
-        <v>225.9304893188433</v>
+        <v>225.9304893188435</v>
       </c>
       <c r="M5" t="n">
-        <v>219.4018707603974</v>
+        <v>219.4018707603977</v>
       </c>
       <c r="N5" t="n">
-        <v>218.2916099030229</v>
+        <v>218.2916099030231</v>
       </c>
       <c r="O5" t="n">
-        <v>219.596538066148</v>
+        <v>219.5965380661482</v>
       </c>
       <c r="P5" t="n">
-        <v>222.2700605111173</v>
+        <v>222.2700605111175</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,25 +8295,25 @@
         <v>123.6869003357292</v>
       </c>
       <c r="K6" t="n">
-        <v>132.4563458344803</v>
+        <v>132.4563458344805</v>
       </c>
       <c r="L6" t="n">
-        <v>131.3134574915374</v>
+        <v>131.3134574915376</v>
       </c>
       <c r="M6" t="n">
-        <v>133.6842191437694</v>
+        <v>133.6842191437696</v>
       </c>
       <c r="N6" t="n">
-        <v>122.6682558511127</v>
+        <v>122.6682558511129</v>
       </c>
       <c r="O6" t="n">
-        <v>134.6617264891792</v>
+        <v>134.6617264891794</v>
       </c>
       <c r="P6" t="n">
-        <v>127.6062572357704</v>
+        <v>127.6062572357706</v>
       </c>
       <c r="Q6" t="n">
-        <v>135.7248343369103</v>
+        <v>135.7248343369104</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8377,19 +8377,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>130.7280129970306</v>
+        <v>130.7280129970307</v>
       </c>
       <c r="M7" t="n">
-        <v>134.5431653216058</v>
+        <v>134.5431653216059</v>
       </c>
       <c r="N7" t="n">
-        <v>123.4071347145259</v>
+        <v>123.407134714526</v>
       </c>
       <c r="O7" t="n">
-        <v>134.5047345663799</v>
+        <v>134.50473456638</v>
       </c>
       <c r="P7" t="n">
-        <v>134.3465531299169</v>
+        <v>134.346553129917</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>104.9861099304052</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9656,10 +9656,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>170.7025298033878</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9878,10 +9878,10 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>40.02214132148691</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9890,10 +9890,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>277.2206841544146</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>78.40458911672806</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10124,10 +10124,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>19.40311602546598</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10355,22 +10355,22 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>287.00178544739</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>167.736966642837</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10595,16 +10595,16 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>343.5485285966306</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>78.40458911672883</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10823,13 +10823,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>277.2206841544144</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>342.9371040273985</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11060,22 +11060,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>21.74982042514745</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>306.6874953089258</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>277.2206841544144</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11309,16 +11309,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>174.4519134245573</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.16194852731947</v>
+        <v>15.16194852731945</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>319.0494375838415</v>
+        <v>355.0091537477815</v>
       </c>
       <c r="F11" t="n">
         <v>379.9548294172311</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26654546369548</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>176.9967538151398</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0739556344217</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>93.38403111903689</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>36.49609379088007</v>
+        <v>26.83628390814489</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>118.4998316984509</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43120408535773</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.010936345567</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>259.6017820121107</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.8126253390002</v>
+        <v>355.8126253390003</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7618252962026</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.6865480628402</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26654546369551</v>
+        <v>82.26654546369556</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>75.50509359923389</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>224.0739556344217</v>
       </c>
       <c r="V14" t="n">
-        <v>239.5037720002924</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23656,10 +23656,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>121.6942566937321</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>119.5127463220889</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>117.8337985898405</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43120408535778</v>
+        <v>69.43120408535782</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>49.62949725685316</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>183.4538718631659</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>225.2164269993477</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>155.93832297462</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>203.0155247939015</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23783,10 +23783,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>130.0216171965473</v>
       </c>
       <c r="U17" t="n">
-        <v>177.0988190158291</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>220.7114114442475</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24017,25 +24017,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>35.29140884510294</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>177.0988190158291</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>77.03432170109849</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>155.93832297462</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>204819.0846792596</v>
+        <v>204819.0846792595</v>
       </c>
       <c r="C2" t="n">
         <v>204820.3250190435</v>
       </c>
       <c r="D2" t="n">
-        <v>204821.8863801171</v>
+        <v>204821.8863801172</v>
       </c>
       <c r="E2" t="n">
-        <v>182385.4725632098</v>
+        <v>182385.4725632099</v>
       </c>
       <c r="F2" t="n">
-        <v>182385.4725632098</v>
+        <v>182385.4725632097</v>
       </c>
       <c r="G2" t="n">
-        <v>198633.0033404608</v>
+        <v>198633.0033404607</v>
       </c>
       <c r="H2" t="n">
         <v>198633.0033404607</v>
       </c>
       <c r="I2" t="n">
-        <v>205260.4424660708</v>
+        <v>205260.4424660707</v>
       </c>
       <c r="J2" t="n">
         <v>205260.4424660708</v>
@@ -26344,16 +26344,16 @@
         <v>205260.4424660708</v>
       </c>
       <c r="M2" t="n">
-        <v>205260.4424660705</v>
+        <v>205260.4424660707</v>
       </c>
       <c r="N2" t="n">
-        <v>205260.4424660705</v>
+        <v>205260.4424660706</v>
       </c>
       <c r="O2" t="n">
         <v>205260.4424660705</v>
       </c>
       <c r="P2" t="n">
-        <v>205260.4424660708</v>
+        <v>205260.4424660706</v>
       </c>
     </row>
     <row r="3">
@@ -26366,10 +26366,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>14118.19859945511</v>
+        <v>14118.19859945478</v>
       </c>
       <c r="D3" t="n">
-        <v>16714.64353072133</v>
+        <v>16714.64353072163</v>
       </c>
       <c r="E3" t="n">
         <v>1117168.84147192</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487406</v>
+        <v>37580.10929487393</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>22820.44161905848</v>
       </c>
       <c r="J3" t="n">
-        <v>25410.44272728114</v>
+        <v>25410.44272728112</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487407</v>
+        <v>37580.10929487411</v>
       </c>
       <c r="M3" t="n">
-        <v>207188.568292073</v>
+        <v>207188.5682920731</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>430898.5094426759</v>
       </c>
       <c r="C4" t="n">
-        <v>426739.1543200265</v>
+        <v>426739.1543200266</v>
       </c>
       <c r="D4" t="n">
         <v>421594.991239873</v>
@@ -26427,7 +26427,7 @@
         <v>37585.46710210905</v>
       </c>
       <c r="F4" t="n">
-        <v>37585.46710210905</v>
+        <v>37585.46710210898</v>
       </c>
       <c r="G4" t="n">
         <v>74613.22686521038</v>
@@ -26436,28 +26436,28 @@
         <v>74613.2268652104</v>
       </c>
       <c r="I4" t="n">
-        <v>85473.00365913914</v>
+        <v>85473.00365913915</v>
       </c>
       <c r="J4" t="n">
         <v>80755.36360646598</v>
       </c>
       <c r="K4" t="n">
+        <v>80755.36360646599</v>
+      </c>
+      <c r="L4" t="n">
+        <v>80755.36360646595</v>
+      </c>
+      <c r="M4" t="n">
+        <v>80755.36360646599</v>
+      </c>
+      <c r="N4" t="n">
         <v>80755.36360646598</v>
       </c>
-      <c r="L4" t="n">
-        <v>80755.36360646598</v>
-      </c>
-      <c r="M4" t="n">
-        <v>80755.36360646595</v>
-      </c>
-      <c r="N4" t="n">
-        <v>80755.36360646599</v>
-      </c>
       <c r="O4" t="n">
-        <v>80755.36360646598</v>
+        <v>80755.36360646597</v>
       </c>
       <c r="P4" t="n">
-        <v>80755.36360646601</v>
+        <v>80755.36360646604</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>33627.6</v>
       </c>
       <c r="C5" t="n">
-        <v>33965.59259112996</v>
+        <v>33965.59259112995</v>
       </c>
       <c r="D5" t="n">
         <v>34391.06348367693</v>
       </c>
       <c r="E5" t="n">
-        <v>76569.58029657604</v>
+        <v>76569.58029657605</v>
       </c>
       <c r="F5" t="n">
         <v>76569.58029657602</v>
@@ -26491,7 +26491,7 @@
         <v>85736.38360144483</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="K5" t="n">
         <v>89377.9416748061</v>
@@ -26500,16 +26500,16 @@
         <v>89377.9416748061</v>
       </c>
       <c r="M5" t="n">
+        <v>89377.94167480612</v>
+      </c>
+      <c r="N5" t="n">
         <v>89377.9416748061</v>
-      </c>
-      <c r="N5" t="n">
-        <v>89377.94167480612</v>
       </c>
       <c r="O5" t="n">
         <v>89377.9416748061</v>
       </c>
       <c r="P5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-259707.0247634162</v>
+        <v>-259711.4383412844</v>
       </c>
       <c r="C6" t="n">
-        <v>-270002.6204915681</v>
+        <v>-270007.021666038</v>
       </c>
       <c r="D6" t="n">
-        <v>-267878.8118741541</v>
+        <v>-267883.1974350139</v>
       </c>
       <c r="E6" t="n">
-        <v>-1048938.416307396</v>
+        <v>-1049167.166006424</v>
       </c>
       <c r="F6" t="n">
-        <v>68230.4251645249</v>
+        <v>68001.67546549632</v>
       </c>
       <c r="G6" t="n">
-        <v>5920.934123411818</v>
+        <v>5854.659732155807</v>
       </c>
       <c r="H6" t="n">
-        <v>43501.04341828582</v>
+        <v>43434.76902702972</v>
       </c>
       <c r="I6" t="n">
-        <v>11230.6135864283</v>
+        <v>11230.61358642826</v>
       </c>
       <c r="J6" t="n">
-        <v>9716.694457517529</v>
+        <v>9716.694457517602</v>
       </c>
       <c r="K6" t="n">
-        <v>35127.13718479864</v>
+        <v>35127.13718479866</v>
       </c>
       <c r="L6" t="n">
-        <v>-2452.972110075338</v>
+        <v>-2452.972110075367</v>
       </c>
       <c r="M6" t="n">
-        <v>-172061.4311072745</v>
+        <v>-172061.4311072744</v>
       </c>
       <c r="N6" t="n">
-        <v>35127.13718479835</v>
+        <v>35127.1371847985</v>
       </c>
       <c r="O6" t="n">
+        <v>35127.13718479843</v>
+      </c>
+      <c r="P6" t="n">
         <v>35127.13718479841</v>
-      </c>
-      <c r="P6" t="n">
-        <v>35127.13718479866</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448033</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="G2" t="n">
         <v>73.89635294307291</v>
@@ -26707,25 +26707,25 @@
         <v>73.89635294307291</v>
       </c>
       <c r="J2" t="n">
+        <v>46.97513661859259</v>
+      </c>
+      <c r="K2" t="n">
+        <v>46.97513661859259</v>
+      </c>
+      <c r="L2" t="n">
+        <v>46.97513661859259</v>
+      </c>
+      <c r="M2" t="n">
         <v>46.97513661859257</v>
       </c>
-      <c r="K2" t="n">
-        <v>46.97513661859256</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>46.97513661859257</v>
       </c>
-      <c r="M2" t="n">
-        <v>46.97513661859255</v>
-      </c>
-      <c r="N2" t="n">
-        <v>46.97513661859255</v>
-      </c>
       <c r="O2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859265</v>
       </c>
     </row>
     <row r="3">
@@ -26738,13 +26738,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>15.50424729953932</v>
+        <v>15.50424729953896</v>
       </c>
       <c r="D3" t="n">
         <v>35.02126071912533</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26796,7 +26796,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022926</v>
@@ -26823,7 +26823,7 @@
         <v>1014.336461208614</v>
       </c>
       <c r="N4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="O4" t="n">
         <v>1014.336461208614</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448033</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26960,19 +26960,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>15.50424729953932</v>
+        <v>15.50424729953896</v>
       </c>
       <c r="D3" t="n">
-        <v>19.51701341958601</v>
+        <v>19.51701341958636</v>
       </c>
       <c r="E3" t="n">
         <v>1054.755439874173</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.139307860380569e-14</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-1.256227481677992e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>85.81662079737396</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11838500894783</v>
+        <v>97.11838500894771</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448033</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27637,7 +27637,7 @@
         <v>208.0729649713487</v>
       </c>
       <c r="J5" t="n">
-        <v>6.659224593851609</v>
+        <v>6.659224593851733</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,16 +27658,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.25990811678349</v>
+        <v>3.259908116783648</v>
       </c>
       <c r="R5" t="n">
-        <v>145.9538669886685</v>
+        <v>145.9538669886686</v>
       </c>
       <c r="S5" t="n">
         <v>207.5997558763428</v>
       </c>
       <c r="T5" t="n">
-        <v>222.8230059759756</v>
+        <v>222.8230059759757</v>
       </c>
       <c r="U5" t="n">
         <v>251.3406666172477</v>
@@ -27713,7 +27713,7 @@
         <v>111.9133654388211</v>
       </c>
       <c r="I6" t="n">
-        <v>88.24844095234542</v>
+        <v>88.24844095234545</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>98.08728580573484</v>
+        <v>98.08728580573489</v>
       </c>
       <c r="S6" t="n">
-        <v>171.063732544276</v>
+        <v>171.0637325442761</v>
       </c>
       <c r="T6" t="n">
         <v>200.0303097960643</v>
@@ -27795,10 +27795,10 @@
         <v>154.6096872212439</v>
       </c>
       <c r="J7" t="n">
-        <v>91.38251566997577</v>
+        <v>91.38251566997582</v>
       </c>
       <c r="K7" t="n">
-        <v>19.02122493263511</v>
+        <v>19.02122493263518</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>83.82090190946394</v>
+        <v>83.820901909464</v>
       </c>
       <c r="R7" t="n">
-        <v>176.0362765059642</v>
+        <v>176.0362765059643</v>
       </c>
       <c r="S7" t="n">
         <v>223.5293580029851</v>
@@ -27950,7 +27950,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I9" t="n">
-        <v>86.80307722268739</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448033</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448033</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448033</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448033</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448033</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448033</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448033</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448033</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448033</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448033</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448033</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448033</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448033</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448033</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448033</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448033</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448033</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448033</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448033</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448033</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448033</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448033</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448033</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448033</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448033</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448033</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448033</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448033</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448033</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448033</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448033</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448033</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448033</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448033</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448033</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448033</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448033</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448033</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448033</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
     </row>
     <row r="17">
@@ -28725,10 +28725,10 @@
         <v>73.89635294307291</v>
       </c>
       <c r="D19" t="n">
+        <v>11.47954295044769</v>
+      </c>
+      <c r="E19" t="n">
         <v>73.89635294307291</v>
-      </c>
-      <c r="E19" t="n">
-        <v>11.47954295044772</v>
       </c>
       <c r="F19" t="n">
         <v>73.89635294307291</v>
@@ -29205,13 +29205,13 @@
         <v>73.89635294307291</v>
       </c>
       <c r="F25" t="n">
-        <v>11.47954295044778</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="G25" t="n">
         <v>73.89635294307291</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89635294307291</v>
+        <v>11.47954295044778</v>
       </c>
       <c r="I25" t="n">
         <v>73.89635294307291</v>
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292598</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859306</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859265</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185908</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859265</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06232863235995704</v>
+        <v>0.06232863235995557</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6383231061564102</v>
+        <v>0.6383231061563952</v>
       </c>
       <c r="I5" t="n">
-        <v>2.402924599057246</v>
+        <v>2.40292459905719</v>
       </c>
       <c r="J5" t="n">
-        <v>5.290064760760909</v>
+        <v>5.290064760760784</v>
       </c>
       <c r="K5" t="n">
-        <v>7.928435768557891</v>
+        <v>7.928435768557705</v>
       </c>
       <c r="L5" t="n">
-        <v>9.835925651143928</v>
+        <v>9.835925651143697</v>
       </c>
       <c r="M5" t="n">
-        <v>10.94436246687531</v>
+        <v>10.94436246687506</v>
       </c>
       <c r="N5" t="n">
-        <v>11.12145369356804</v>
+        <v>11.12145369356778</v>
       </c>
       <c r="O5" t="n">
-        <v>10.50167335553872</v>
+        <v>10.50167335553847</v>
       </c>
       <c r="P5" t="n">
-        <v>8.962935244152279</v>
+        <v>8.962935244152067</v>
       </c>
       <c r="Q5" t="n">
-        <v>6.730791097761315</v>
+        <v>6.730791097761156</v>
       </c>
       <c r="R5" t="n">
-        <v>3.915250952481155</v>
+        <v>3.915250952481063</v>
       </c>
       <c r="S5" t="n">
-        <v>1.420313709902522</v>
+        <v>1.420313709902489</v>
       </c>
       <c r="T5" t="n">
-        <v>0.2728435881557121</v>
+        <v>0.2728435881557056</v>
       </c>
       <c r="U5" t="n">
-        <v>0.004986290588796562</v>
+        <v>0.004986290588796445</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03334875834240534</v>
+        <v>0.03334875834240456</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3220787976753358</v>
+        <v>0.3220787976753283</v>
       </c>
       <c r="I6" t="n">
-        <v>1.148191899069658</v>
+        <v>1.148191899069631</v>
       </c>
       <c r="J6" t="n">
-        <v>3.150726330937515</v>
+        <v>3.150726330937442</v>
       </c>
       <c r="K6" t="n">
-        <v>5.385093139878673</v>
+        <v>5.385093139878546</v>
       </c>
       <c r="L6" t="n">
-        <v>7.240922288336739</v>
+        <v>7.240922288336569</v>
       </c>
       <c r="M6" t="n">
-        <v>8.44981477824893</v>
+        <v>8.449814778248733</v>
       </c>
       <c r="N6" t="n">
-        <v>8.673456232220589</v>
+        <v>8.673456232220385</v>
       </c>
       <c r="O6" t="n">
-        <v>7.934517955265186</v>
+        <v>7.934517955265</v>
       </c>
       <c r="P6" t="n">
-        <v>6.368150178559842</v>
+        <v>6.368150178559691</v>
       </c>
       <c r="Q6" t="n">
-        <v>4.25693974911125</v>
+        <v>4.256939749111151</v>
       </c>
       <c r="R6" t="n">
-        <v>2.07054834690829</v>
+        <v>2.070548346908242</v>
       </c>
       <c r="S6" t="n">
-        <v>0.619438559561783</v>
+        <v>0.6194385595617684</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1344188987573267</v>
+        <v>0.1344188987573236</v>
       </c>
       <c r="U6" t="n">
-        <v>0.002193997259368773</v>
+        <v>0.002193997259368722</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02795847873687419</v>
+        <v>0.02795847873687353</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2485762927696634</v>
+        <v>0.2485762927696576</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8407877060143623</v>
+        <v>0.8407877060143425</v>
       </c>
       <c r="J7" t="n">
-        <v>1.976664446697005</v>
+        <v>1.976664446696959</v>
       </c>
       <c r="K7" t="n">
-        <v>3.248266893247746</v>
+        <v>3.24826689324767</v>
       </c>
       <c r="L7" t="n">
-        <v>4.156663284207641</v>
+        <v>4.156663284207544</v>
       </c>
       <c r="M7" t="n">
-        <v>4.382618625999287</v>
+        <v>4.382618625999184</v>
       </c>
       <c r="N7" t="n">
-        <v>4.278409750707305</v>
+        <v>4.278409750707205</v>
       </c>
       <c r="O7" t="n">
-        <v>3.95180388546291</v>
+        <v>3.951803885462817</v>
       </c>
       <c r="P7" t="n">
-        <v>3.381450919230673</v>
+        <v>3.381450919230594</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.341141342230438</v>
+        <v>2.341141342230383</v>
       </c>
       <c r="R7" t="n">
-        <v>1.25711487120527</v>
+        <v>1.25711487120524</v>
       </c>
       <c r="S7" t="n">
-        <v>0.4872400339871618</v>
+        <v>0.4872400339871504</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1194589546030079</v>
+        <v>0.1194589546030051</v>
       </c>
       <c r="U7" t="n">
-        <v>0.00152500793110223</v>
+        <v>0.001525007931102194</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31546,16 +31546,16 @@
         <v>15.20362680796963</v>
       </c>
       <c r="R8" t="n">
-        <v>8.843836255870379</v>
+        <v>8.843836255870377</v>
       </c>
       <c r="S8" t="n">
         <v>3.208229059847512</v>
       </c>
       <c r="T8" t="n">
-        <v>0.6163037941626979</v>
+        <v>0.6163037941626978</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01126311902524633</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.07532874947132619</v>
+        <v>0.07532874947132617</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7275171330520188</v>
+        <v>0.7275171330520187</v>
       </c>
       <c r="I9" t="n">
         <v>2.593555628727678</v>
       </c>
       <c r="J9" t="n">
-        <v>7.11691487877999</v>
+        <v>7.116914878779989</v>
       </c>
       <c r="K9" t="n">
         <v>12.16394109335884</v>
@@ -31613,7 +31613,7 @@
         <v>19.0865870919233</v>
       </c>
       <c r="N9" t="n">
-        <v>19.59175225833409</v>
+        <v>19.59175225833408</v>
       </c>
       <c r="O9" t="n">
         <v>17.92262575689049</v>
@@ -31671,22 +31671,22 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.06315309310006206</v>
+        <v>0.06315309310006205</v>
       </c>
       <c r="H10" t="n">
         <v>0.5614884095623703</v>
       </c>
       <c r="I10" t="n">
-        <v>1.899185745227322</v>
+        <v>1.899185745227321</v>
       </c>
       <c r="J10" t="n">
-        <v>4.464923682174388</v>
+        <v>4.464923682174387</v>
       </c>
       <c r="K10" t="n">
         <v>7.337241180170845</v>
       </c>
       <c r="L10" t="n">
-        <v>9.389142586894684</v>
+        <v>9.389142586894682</v>
       </c>
       <c r="M10" t="n">
         <v>9.899534402948818</v>
@@ -31695,10 +31695,10 @@
         <v>9.664145601394049</v>
       </c>
       <c r="O10" t="n">
-        <v>8.926402650179686</v>
+        <v>8.926402650179684</v>
       </c>
       <c r="P10" t="n">
-        <v>7.638079550938413</v>
+        <v>7.638079550938412</v>
       </c>
       <c r="Q10" t="n">
         <v>5.288210368587925</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31759,40 +31759,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31911,43 +31911,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32333,7 +32333,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32549,13 +32549,13 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M21" t="n">
         <v>593.9283018233474</v>
@@ -32789,7 +32789,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353165</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138795</v>
@@ -32807,7 +32807,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33029,7 +33029,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138802</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
         <v>593.9283018233474</v>
@@ -33044,7 +33044,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33260,7 +33260,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026445</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
@@ -33269,7 +33269,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N30" t="n">
         <v>609.6478166837924</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33734,7 +33734,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026445</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -33749,7 +33749,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P36" t="n">
         <v>447.6103584002926</v>
@@ -33989,10 +33989,10 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34220,13 +34220,13 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O42" t="n">
         <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987486</v>
@@ -34463,7 +34463,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987486</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49963293754656</v>
+        <v>72.49963293754658</v>
       </c>
       <c r="K13" t="n">
-        <v>232.9688758687999</v>
+        <v>232.9688758688</v>
       </c>
       <c r="L13" t="n">
         <v>346.6785884946785</v>
@@ -35580,7 +35580,7 @@
         <v>371.7781624920204</v>
       </c>
       <c r="O13" t="n">
-        <v>329.2743465471201</v>
+        <v>329.2743465471202</v>
       </c>
       <c r="P13" t="n">
         <v>261.8782874695908</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49963293754654</v>
+        <v>72.49963293754649</v>
       </c>
       <c r="K16" t="n">
         <v>232.9688758687998</v>
@@ -35814,7 +35814,7 @@
         <v>374.5545957179641</v>
       </c>
       <c r="N16" t="n">
-        <v>371.7781624920204</v>
+        <v>371.7781624920203</v>
       </c>
       <c r="O16" t="n">
         <v>329.27434654712</v>
@@ -35823,7 +35823,7 @@
         <v>261.8782874695907</v>
       </c>
       <c r="Q16" t="n">
-        <v>105.315454862374</v>
+        <v>105.3154548623739</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35981,7 +35981,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302273</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129113</v>
@@ -36139,7 +36139,7 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037199</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
         <v>59.61319854222472</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597743</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M21" t="n">
         <v>451.7942679013291</v>
@@ -36364,7 +36364,7 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>643.9072257606317</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129113</v>
@@ -36376,10 +36376,10 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>421.4968346071072</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609575</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340053</v>
@@ -36455,7 +36455,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36598,10 +36598,10 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>495.6122557138189</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129113</v>
@@ -36610,10 +36610,10 @@
         <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>675.9826703737863</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -36677,7 +36677,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
         <v>451.7942679013291</v>
@@ -36692,7 +36692,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
@@ -36759,7 +36759,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
         <v>391.8320827861326</v>
@@ -36768,7 +36768,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3693751564862</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>269.1915900854406</v>
       </c>
       <c r="K29" t="n">
         <v>661.3366991265651</v>
@@ -36844,10 +36844,10 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>418.1651022448376</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
         <v>250.7943048037194</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597776</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
@@ -36917,7 +36917,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N30" t="n">
         <v>478.3061046004591</v>
@@ -36987,16 +36987,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
         <v>391.8320827861326</v>
@@ -37005,7 +37005,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>825.9229012776168</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>418.5312714465564</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L34" t="n">
         <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923319</v>
@@ -37315,16 +37315,16 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>895.8503640095419</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>329.1988939204483</v>
       </c>
       <c r="R35" t="n">
         <v>59.61319854222472</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597776</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37397,7 +37397,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
@@ -37543,13 +37543,13 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>614.4119707098148</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>881.858219857625</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129113</v>
@@ -37564,7 +37564,7 @@
         <v>463.1092954636241</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37637,10 +37637,10 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165875</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
         <v>394.6085160120763</v>
@@ -37716,7 +37716,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3693751564862</v>
@@ -37780,22 +37780,22 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>358.9411069805478</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>858.9893307218371</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q41" t="n">
         <v>250.7943048037194</v>
@@ -37868,13 +37868,13 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O42" t="n">
         <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127271</v>
@@ -37935,16 +37935,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
         <v>391.8320827861326</v>
@@ -37956,7 +37956,7 @@
         <v>281.9322077637029</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3693751564867</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>614.4119707098148</v>
       </c>
       <c r="L44" t="n">
         <v>455.5901143923319</v>
@@ -38029,16 +38029,16 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
         <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>425.2462182282767</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38111,7 +38111,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127271</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165884</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L46" t="n">
         <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861309</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
